--- a/SolucionPrecios01/InflacionAnual.xlsx
+++ b/SolucionPrecios01/InflacionAnual.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdbol\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdbol\Documents\SolucionPrecios01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FB95F50-EF79-46EA-B0EC-4D64C73D8690}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDB07F0-DD83-464B-8769-7D65568DAD76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="3084" windowWidth="17280" windowHeight="9420" xr2:uid="{B6D2EECF-CC99-4500-9B67-C942E6CA3E29}"/>
+    <workbookView xWindow="816" yWindow="3132" windowWidth="17280" windowHeight="9420" xr2:uid="{B6D2EECF-CC99-4500-9B67-C942E6CA3E29}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <t>Ano</t>
   </si>
   <si>
-    <t>Infacion anual</t>
+    <t>IPC</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SolucionPrecios01/InflacionAnual.xlsx
+++ b/SolucionPrecios01/InflacionAnual.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdbol\Documents\SolucionPrecios01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdbol\Desktop\HOMEWORKS\evaluacion-cdbolivarz\SolucionPrecios01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDB07F0-DD83-464B-8769-7D65568DAD76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DAD21F-369D-4F51-9F67-7F9CF9CC5110}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="816" yWindow="3132" windowWidth="17280" windowHeight="9420" xr2:uid="{B6D2EECF-CC99-4500-9B67-C942E6CA3E29}"/>
   </bookViews>
@@ -411,7 +411,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -435,7 +435,7 @@
         <v>1995</v>
       </c>
       <c r="C2" s="3">
-        <v>19.47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">

--- a/SolucionPrecios01/InflacionAnual.xlsx
+++ b/SolucionPrecios01/InflacionAnual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdbol\Desktop\HOMEWORKS\evaluacion-cdbolivarz\SolucionPrecios01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DAD21F-369D-4F51-9F67-7F9CF9CC5110}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6FEB16-2370-475C-AF38-EE7323C6F62E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="816" yWindow="3132" windowWidth="17280" windowHeight="9420" xr2:uid="{B6D2EECF-CC99-4500-9B67-C942E6CA3E29}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B6D2EECF-CC99-4500-9B67-C942E6CA3E29}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -411,10 +411,13 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -435,7 +438,7 @@
         <v>1995</v>
       </c>
       <c r="C2" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -446,7 +449,7 @@
         <v>1996</v>
       </c>
       <c r="C3" s="3">
-        <v>21.64</v>
+        <v>121.64</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -457,7 +460,7 @@
         <v>1997</v>
       </c>
       <c r="C4" s="3">
-        <v>17.68</v>
+        <v>117.68</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -468,7 +471,7 @@
         <v>1998</v>
       </c>
       <c r="C5" s="3">
-        <v>16.7</v>
+        <v>116.7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -479,7 +482,7 @@
         <v>1999</v>
       </c>
       <c r="C6" s="3">
-        <v>9.23</v>
+        <v>109.23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -490,7 +493,7 @@
         <v>2000</v>
       </c>
       <c r="C7" s="3">
-        <v>8.75</v>
+        <v>108.75</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -501,7 +504,7 @@
         <v>2001</v>
       </c>
       <c r="C8" s="3">
-        <v>7.65</v>
+        <v>107.65</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -512,7 +515,7 @@
         <v>2002</v>
       </c>
       <c r="C9" s="3">
-        <v>6.99</v>
+        <v>106.99</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -523,7 +526,7 @@
         <v>2003</v>
       </c>
       <c r="C10" s="3">
-        <v>6.49</v>
+        <v>106.49</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -534,7 +537,7 @@
         <v>2004</v>
       </c>
       <c r="C11" s="3">
-        <v>5.5</v>
+        <v>105.5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -545,7 +548,7 @@
         <v>2005</v>
       </c>
       <c r="C12" s="3">
-        <v>4.8499999999999996</v>
+        <v>104.85</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -556,7 +559,7 @@
         <v>2006</v>
       </c>
       <c r="C13" s="3">
-        <v>4.4800000000000004</v>
+        <v>104.48</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -567,7 +570,7 @@
         <v>2007</v>
       </c>
       <c r="C14" s="3">
-        <v>5.69</v>
+        <v>105.69</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -578,7 +581,7 @@
         <v>2008</v>
       </c>
       <c r="C15" s="3">
-        <v>7.67</v>
+        <v>107.67</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -589,7 +592,7 @@
         <v>2009</v>
       </c>
       <c r="C16" s="3">
-        <v>2</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -600,7 +603,7 @@
         <v>2010</v>
       </c>
       <c r="C17" s="3">
-        <v>3.17</v>
+        <v>103.17</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -611,7 +614,7 @@
         <v>2011</v>
       </c>
       <c r="C18" s="3">
-        <v>3.73</v>
+        <v>103.73</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -622,7 +625,7 @@
         <v>2012</v>
       </c>
       <c r="C19" s="3">
-        <v>2.44</v>
+        <v>102.44</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -633,7 +636,7 @@
         <v>2013</v>
       </c>
       <c r="C20" s="3">
-        <v>1.94</v>
+        <v>101.94</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -644,7 +647,7 @@
         <v>2014</v>
       </c>
       <c r="C21" s="3">
-        <v>3.66</v>
+        <v>103.66</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -655,7 +658,7 @@
         <v>2015</v>
       </c>
       <c r="C22" s="3">
-        <v>6.77</v>
+        <v>106.77</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -666,7 +669,7 @@
         <v>2016</v>
       </c>
       <c r="C23" s="3">
-        <v>5.75</v>
+        <v>105.75</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -677,7 +680,7 @@
         <v>2017</v>
       </c>
       <c r="C24" s="3">
-        <v>4.09</v>
+        <v>104.09</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -688,7 +691,7 @@
         <v>2018</v>
       </c>
       <c r="C25" s="3">
-        <v>3.18</v>
+        <v>103.18</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -699,7 +702,7 @@
         <v>2019</v>
       </c>
       <c r="C26" s="3">
-        <v>3.8</v>
+        <v>103.8</v>
       </c>
     </row>
   </sheetData>
